--- a/test_data/output/docs/bom/test-bom.xlsx
+++ b/test_data/output/docs/bom/test-bom.xlsx
@@ -163,7 +163,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Sun Apr  4 17:02:07 2021</t>
+    <t>Sun Apr 25 16:50:27 2021</t>
   </si>
   <si>
     <t>Schematic Source:</t>
